--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P39_trail7 Features.xlsx
@@ -3639,7 +3639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3650,29 +3650,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3693,115 +3691,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3818,72 +3806,66 @@
         <v>1.962424251399883e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.307790321350544</v>
+        <v>6.414219045713175e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.294733290395957</v>
+        <v>1.456903861801564e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.414219045713175e-06</v>
+        <v>-3.451565980693002e-05</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.456903861801564e-05</v>
+        <v>0.1777679762472292</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-3.451565980693002e-05</v>
+        <v>0.03159452761744967</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1777679762472292</v>
+        <v>1.669959015972495</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03159452761744967</v>
+        <v>1.63903777627926</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.569452354214294</v>
+        <v>4.300794477049631</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.63903777627926</v>
+        <v>5.384389294265585e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.300794477049631</v>
+        <v>15619309.98522323</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.384389294265585e-14</v>
+        <v>7.266428498833285e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>15619309.98522323</v>
+        <v>13.13590927663983</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.266428498833285e-06</v>
+        <v>0.0001467438601638534</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>13.13590927663983</v>
+        <v>9.664971691528747</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001467438601638534</v>
+        <v>1.249461361240385</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.664971691528747</v>
+        <v>0.01370759018446828</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.249461361240385</v>
+        <v>2.888761972531485</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01370759018446828</v>
+        <v>0.9498069618112517</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.888761972531485</v>
+        <v>1.790601075274731</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9498069618112517</v>
+        <v>39</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.790601075274731</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1982486400962191</v>
       </c>
     </row>
@@ -3898,72 +3880,66 @@
         <v>1.966656876285279e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.303847843126827</v>
+        <v>6.497512028819926e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.2867553395814033</v>
+        <v>1.4563023321682e-05</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.497512028819926e-06</v>
+        <v>-0.006026706862196964</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.4563023321682e-05</v>
+        <v>0.1725743200324014</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.006026706862196964</v>
+        <v>0.02981168958535617</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1725743200324014</v>
+        <v>1.67721787722743</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02981168958535617</v>
+        <v>1.745261071680293</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.579563464008648</v>
+        <v>4.315464243108426</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.745261071680293</v>
+        <v>5.347844684708451e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.315464243108426</v>
+        <v>15645750.65061665</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.347844684708451e-14</v>
+        <v>7.26578175467335e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>15645750.65061665</v>
+        <v>13.09096298222314</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.26578175467335e-06</v>
+        <v>0.0001404744222944876</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>13.09096298222314</v>
+        <v>8.022050368236672</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001404744222944876</v>
+        <v>1.352117244763155</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.022050368236672</v>
+        <v>0.009039991531974562</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.352117244763155</v>
+        <v>3.023964273819085</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009039991531974562</v>
+        <v>0.9500871341410339</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.023964273819085</v>
+        <v>1.77766835719901</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9500871341410339</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.77766835719901</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1889899114664582</v>
       </c>
     </row>
@@ -3978,72 +3954,66 @@
         <v>1.976909342889516e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.300695501408624</v>
+        <v>6.582439118443858e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.2740244821858955</v>
+        <v>1.45452739923388e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.582439118443858e-06</v>
+        <v>-0.01193429622186265</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.45452739923388e-05</v>
+        <v>0.1666154847557616</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01193429622186265</v>
+        <v>0.02789644564040196</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1666154847557616</v>
+        <v>1.687949148965993</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02789644564040196</v>
+        <v>1.600191358003476</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.594265876758076</v>
+        <v>4.299655269081011</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.600191358003476</v>
+        <v>5.387242895966211e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.299655269081011</v>
+        <v>15606335.71539673</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.387242895966211e-14</v>
+        <v>7.310001242270246e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>15606335.71539673</v>
+        <v>13.12104566991385</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.310001242270246e-06</v>
+        <v>0.000144944822173849</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>13.12104566991385</v>
+        <v>7.807769253630128</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000144944822173849</v>
+        <v>1.396542287855143</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.807769253630128</v>
+        <v>0.008836019094254296</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.396542287855143</v>
+        <v>2.986828104485845</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008836019094254296</v>
+        <v>0.9503371654364098</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.986828104485845</v>
+        <v>1.745360836676908</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9503371654364098</v>
+        <v>40</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.745360836676908</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1797166040846478</v>
       </c>
     </row>
@@ -4058,72 +4028,66 @@
         <v>1.989540482875144e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.30922445047542</v>
+        <v>6.657273821434593e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.2785167370363566</v>
+        <v>1.451561187609848e-05</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.657273821434593e-06</v>
+        <v>-0.01799512915662301</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.451561187609848e-05</v>
+        <v>0.1594546685286813</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01799512915662301</v>
+        <v>0.02574150773026484</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1594546685286813</v>
+        <v>1.692215607825775</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02574150773026484</v>
+        <v>1.658515827772418</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.599443399976214</v>
+        <v>4.254070581427685</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.658515827772418</v>
+        <v>5.503315969634995e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.254070581427685</v>
+        <v>15174983.78940697</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.503315969634995e-14</v>
+        <v>7.512538700253145e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>15174983.78940697</v>
+        <v>12.67304333476803</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.512538700253145e-06</v>
+        <v>0.0001557132999981319</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>12.67304333476803</v>
+        <v>9.433777273744841</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001557132999981319</v>
+        <v>1.195300165954503</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.433777273744841</v>
+        <v>0.01385788477207956</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.195300165954503</v>
+        <v>2.777232479523215</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01385788477207956</v>
+        <v>0.9514436584042589</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.777232479523215</v>
+        <v>1.781010104038235</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9514436584042589</v>
+        <v>35</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.781010104038235</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.17618904244364</v>
       </c>
     </row>
@@ -4138,72 +4102,66 @@
         <v>2.00002277198794e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.339350030550944</v>
+        <v>6.723923222007972e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.3320696109565291</v>
+        <v>1.447299379835103e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.723923222007972e-06</v>
+        <v>-0.02486765555466443</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.447299379835103e-05</v>
+        <v>0.1496856426646414</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02486765555466443</v>
+        <v>0.02301267687646268</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1496856426646414</v>
+        <v>1.704540975307719</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02301267687646268</v>
+        <v>1.601693142256897</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.612661793629617</v>
+        <v>4.26613811235752</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.601693142256897</v>
+        <v>5.47222578659318e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.26613811235752</v>
+        <v>15692074.2914402</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.47222578659318e-14</v>
+        <v>7.284267007495627e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>15692074.2914402</v>
+        <v>13.47487420109173</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.284267007495627e-06</v>
+        <v>0.0001685557815027063</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>13.47487420109173</v>
+        <v>10.80854040123304</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001685557815027063</v>
+        <v>1.1197539860564</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.80854040123304</v>
+        <v>0.01969145258316397</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.1197539860564</v>
+        <v>2.552521256212936</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01969145258316397</v>
+        <v>0.9520303481527893</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.552521256212936</v>
+        <v>1.790829047456534</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9520303481527893</v>
+        <v>60</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.790829047456534</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1754565918079638</v>
       </c>
     </row>
@@ -4218,72 +4176,66 @@
         <v>2.001771408127097e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.399856929541454</v>
+        <v>6.788864534550094e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.4794782513912876</v>
+        <v>1.441547903513525e-05</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.788864534550094e-06</v>
+        <v>-0.03249707463970073</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.441547903513525e-05</v>
+        <v>0.1375031631924005</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03249707463970073</v>
+        <v>0.01995430320600695</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1375031631924005</v>
+        <v>1.723513155365788</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01995430320600695</v>
+        <v>1.720993715913744</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.639311313180371</v>
+        <v>4.288552044110278</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.720993715913744</v>
+        <v>5.415174562358854e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.288552044110278</v>
+        <v>15731937.53882644</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.415174562358854e-14</v>
+        <v>7.336176533820038e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>15731937.53882644</v>
+        <v>13.40222448110562</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.336176533820038e-06</v>
+        <v>0.0001605960502943881</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>13.40222448110562</v>
+        <v>9.949988571573062</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001605960502943881</v>
+        <v>1.165704678678171</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.949988571573062</v>
+        <v>0.01589937394562261</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.165704678678171</v>
+        <v>2.763873700577869</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01589937394562261</v>
+        <v>0.9545289266368445</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.763873700577869</v>
+        <v>1.726323012603465</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9545289266368445</v>
+        <v>60</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.726323012603465</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1738178401566749</v>
       </c>
     </row>
@@ -4298,72 +4250,66 @@
         <v>1.990453096176249e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.487735886290504</v>
+        <v>6.852961432018227e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.7385662021785042</v>
+        <v>1.434503499202592e-05</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.852961432018227e-06</v>
+        <v>-0.03738116341002289</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.434503499202592e-05</v>
+        <v>0.1329890255958524</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03738116341002289</v>
+        <v>0.01908232533826388</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1329890255958524</v>
+        <v>1.725915390943542</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01908232533826388</v>
+        <v>1.680365534729535</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.647528129695813</v>
+        <v>4.327778302683972</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.680365534729535</v>
+        <v>5.317454962800787e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.327778302683972</v>
+        <v>15983064.83112168</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.317454962800787e-14</v>
+        <v>7.225663563969732e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>15983064.83112168</v>
+        <v>13.58388331593259</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.225663563969732e-06</v>
+        <v>0.0001527674006692378</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>13.58388331593259</v>
+        <v>8.343173064552955</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001527674006692378</v>
+        <v>1.362000033788139</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.343173064552955</v>
+        <v>0.01063391522904599</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.362000033788139</v>
+        <v>2.959803621427831</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01063391522904599</v>
+        <v>0.9550985651222489</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.959803621427831</v>
+        <v>1.739882846997432</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9550985651222489</v>
+        <v>89</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.739882846997432</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1740581168299703</v>
       </c>
     </row>
@@ -4378,72 +4324,66 @@
         <v>1.969152060981981e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.591853197329279</v>
+        <v>6.914861807512078e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.085099639011856</v>
+        <v>1.426746732279297e-05</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.914861807512078e-06</v>
+        <v>-0.04118197727837102</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.426746732279297e-05</v>
+        <v>0.1315853697358655</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04118197727837102</v>
+        <v>0.01900770169265021</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1315853697358655</v>
+        <v>1.74817338588028</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01900770169265021</v>
+        <v>1.550279125869192</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.671313463983339</v>
+        <v>4.393781610381314</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.550279125869192</v>
+        <v>5.158897475260462e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.393781610381314</v>
+        <v>16447715.09400288</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.158897475260462e-14</v>
+        <v>7.070240527384111e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>16447715.09400288</v>
+        <v>13.95622769081563</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.070240527384111e-06</v>
+        <v>0.000142282605214834</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>13.95622769081563</v>
+        <v>7.87887504568737</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000142282605214834</v>
+        <v>1.373613327966631</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.87887504568737</v>
+        <v>0.008832430613171488</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.373613327966631</v>
+        <v>3.020194981488148</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008832430613171488</v>
+        <v>0.9564270508875827</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.020194981488148</v>
+        <v>1.737124785055482</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9564270508875827</v>
+        <v>88</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.737124785055482</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.188734543780291</v>
       </c>
     </row>
@@ -4458,72 +4398,66 @@
         <v>1.93332177732655e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.71494202545838</v>
+        <v>6.966618599844713e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.550716614601353</v>
+        <v>1.41816872485854e-05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.966618599844713e-06</v>
+        <v>-0.04703332107146448</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.41816872485854e-05</v>
+        <v>0.127324324271668</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04703332107146448</v>
+        <v>0.01841666720106959</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.127324324271668</v>
+        <v>1.755970877758467</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01841666720106959</v>
+        <v>1.560945219877186</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.681126498353003</v>
+        <v>4.103236117460175</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.560945219877186</v>
+        <v>4.620645109519306e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.103236117460175</v>
+        <v>18252415.82611373</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.620645109519306e-14</v>
+        <v>6.383492924886296e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>18252415.82611373</v>
+        <v>15.39371076398158</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.383492924886296e-06</v>
+        <v>0.0001337281208595215</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>15.39371076398158</v>
+        <v>8.680622689962773</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001337281208595215</v>
+        <v>1.183039491925001</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.680622689962773</v>
+        <v>0.01007684321221181</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.183039491925001</v>
+        <v>2.965512772849644</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01007684321221181</v>
+        <v>0.957526600114896</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.965512772849644</v>
+        <v>1.701298775272628</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.957526600114896</v>
+        <v>88</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.701298775272628</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2184781265403901</v>
       </c>
     </row>
@@ -4538,72 +4472,66 @@
         <v>1.872020769876454e-06</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.859343568810851</v>
+        <v>7.00119536557778e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.18458294441077</v>
+        <v>1.40846295007907e-05</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.00119536557778e-06</v>
+        <v>-0.0549955561860019</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.40846295007907e-05</v>
+        <v>0.1199200679200417</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0549955561860019</v>
+        <v>0.01739844987159901</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1199200679200417</v>
+        <v>1.763167096872252</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01739844987159901</v>
+        <v>1.613340716902161</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.692717554133855</v>
+        <v>4.16086859467211</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.613340716902161</v>
+        <v>4.769908030167213e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.16086859467211</v>
+        <v>17647649.69016765</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.769908030167213e-14</v>
+        <v>6.601094448896835e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>17647649.69016765</v>
+        <v>14.85537960787011</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.601094448896835e-06</v>
+        <v>0.0001283152439406125</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>14.85537960787011</v>
+        <v>10.26644410318546</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001283152439406125</v>
+        <v>1.075517172421687</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.26644410318546</v>
+        <v>0.01352441061083539</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.075517172421687</v>
+        <v>2.95478117442782</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01352441061083539</v>
+        <v>0.9577582727113028</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.95478117442782</v>
+        <v>1.715082894116172</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9577582727113028</v>
+        <v>88</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.715082894116172</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2595985186706764</v>
       </c>
     </row>
@@ -4618,72 +4546,66 @@
         <v>1.778128197593314e-06</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.015647827250425</v>
+        <v>7.014112089856854e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.984977725295274</v>
+        <v>1.397708177620829e-05</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.014112089856854e-06</v>
+        <v>-0.06265422810369083</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.397708177620829e-05</v>
+        <v>0.1185652176531015</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06265422810369083</v>
+        <v>0.0179803201124305</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1185652176531015</v>
+        <v>1.805369645255748</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.0179803201124305</v>
+        <v>1.724656406164443</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.743985974169254</v>
+        <v>4.076851959426526</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.724656406164443</v>
+        <v>4.968532368084351e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.076851959426526</v>
+        <v>16740208.04731613</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.968532368084351e-14</v>
+        <v>7.048476997492469e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>16740208.04731613</v>
+        <v>13.92354509180968</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.048476997492469e-06</v>
+        <v>0.0001487849931985931</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>13.92354509180968</v>
+        <v>11.16691983088974</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001487849931985931</v>
+        <v>1.469104577514275</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.16691983088974</v>
+        <v>0.01855350330860259</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.469104577514275</v>
+        <v>3.210561756954152</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01855350330860259</v>
+        <v>0.956662456966811</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.210561756954152</v>
+        <v>1.688401067975344</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.956662456966811</v>
+        <v>87</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.688401067975344</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3059814064097205</v>
       </c>
     </row>
@@ -4698,72 +4620,66 @@
         <v>1.65184444226353e-06</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2.167416982001465</v>
+        <v>7.014211676241388e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>3.898982942492417</v>
+        <v>1.386298863129214e-05</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.014211676241388e-06</v>
+        <v>-0.07018136490828634</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.386298863129214e-05</v>
+        <v>0.1240774081629455</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.07018136490828634</v>
+        <v>0.02032080702247646</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1240774081629455</v>
+        <v>1.831850721202883</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02032080702247646</v>
+        <v>1.54840911313445</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.779856461022018</v>
+        <v>4.648282960361397</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.54840911313445</v>
+        <v>4.170583116479001e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.648282960361397</v>
+        <v>19688011.966026</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.170583116479001e-14</v>
+        <v>6.032054315658945e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>19688011.966026</v>
+        <v>16.16592315612759</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.032054315658945e-06</v>
+        <v>0.0001615042970614814</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>16.16592315612759</v>
+        <v>9.355671644249851</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001615042970614814</v>
+        <v>1.816606105081257</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.355671644249851</v>
+        <v>0.01413624371001668</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.816606105081257</v>
+        <v>3.27113510310191</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01413624371001668</v>
+        <v>0.9563288615517214</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.27113510310191</v>
+        <v>1.625030629770995</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9563288615517214</v>
+        <v>87</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.625030629770995</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3239624998966129</v>
       </c>
     </row>
@@ -4778,72 +4694,66 @@
         <v>1.496673525502502e-06</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.290928727977628</v>
+        <v>6.991234005994919e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4.816177323003923</v>
+        <v>1.374669112099282e-05</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.991234005994919e-06</v>
+        <v>-0.07744499326233303</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.374669112099282e-05</v>
+        <v>0.1367857704827107</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07744499326233303</v>
+        <v>0.02470834591998187</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1367857704827107</v>
+        <v>1.781319391446563</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02470834591998187</v>
+        <v>1.620336540498475</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.721547277010825</v>
+        <v>5.425664805903887</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.620336540498475</v>
+        <v>1.82160425234712e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.425664805903887</v>
+        <v>45752378.29277801</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.82160425234712e-14</v>
+        <v>2.549483217431963e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>45752378.29277801</v>
+        <v>38.13127966935544</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.549483217431963e-06</v>
+        <v>0.0001236658457899469</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>38.13127966935544</v>
+        <v>9.656526602358262</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001236658457899469</v>
+        <v>1.21045150227697</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.656526602358262</v>
+        <v>0.01153165536586612</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.21045150227697</v>
+        <v>3.186201386515276</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01153165536586612</v>
+        <v>0.9580405284947994</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.186201386515276</v>
+        <v>1.664085605018808</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9580405284947994</v>
+        <v>88</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.664085605018808</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3981294039740372</v>
       </c>
     </row>
@@ -4858,72 +4768,66 @@
         <v>1.321176153205289e-06</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.348684922527451</v>
+        <v>6.732118091472447e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>5.519919877239607</v>
+        <v>1.363256516835638e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.732118091472447e-06</v>
+        <v>-0.08450349689070216</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.363256516835638e-05</v>
+        <v>0.154480968262374</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.08450349689070216</v>
+        <v>0.03099939543264146</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.154480968262374</v>
+        <v>1.806412146173347</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03099939543264146</v>
+        <v>1.854785093318248</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.754799422252499</v>
+        <v>4.553159143482439</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.854785093318248</v>
+        <v>2.456700920687642e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.553159143482439</v>
+        <v>33895249.75688037</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.456700920687642e-14</v>
+        <v>3.468672021351949e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>33895249.75688037</v>
+        <v>28.22474099471871</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.468672021351949e-06</v>
+        <v>0.0001693174533440343</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>28.22474099471871</v>
+        <v>8.680014164263168</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001693174533440343</v>
+        <v>1.712831760722436</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.680014164263168</v>
+        <v>0.01275682493060251</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.712831760722436</v>
+        <v>3.171194816111849</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01275682493060251</v>
+        <v>0.9581635717034126</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.171194816111849</v>
+        <v>1.723357043024905</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9581635717034126</v>
+        <v>88</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.723357043024905</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2978669477281558</v>
       </c>
     </row>
@@ -4938,72 +4842,66 @@
         <v>1.140679587177467e-06</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.295035972415443</v>
+        <v>6.161385632168318e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>5.715173606929548</v>
+        <v>1.35250274816143e-05</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.161385632168318e-06</v>
+        <v>-0.0899402584728695</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.35250274816143e-05</v>
+        <v>0.1709982287662684</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0899402584728695</v>
+        <v>0.03730403136118757</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1709982287662684</v>
+        <v>1.779307350631153</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03730403136118757</v>
+        <v>1.802840248068437</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.716865207505457</v>
+        <v>4.40456956909606</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.802840248068437</v>
+        <v>2.625252018292416e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.40456956909606</v>
+        <v>31416979.34585355</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.625252018292416e-14</v>
+        <v>3.710069901259259e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>31416979.34585355</v>
+        <v>25.91193550702783</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.710069901259259e-06</v>
+        <v>0.000154404186709841</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>25.91193550702783</v>
+        <v>9.043095021330535</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000154404186709841</v>
+        <v>1.481370463694156</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.043095021330535</v>
+        <v>0.01262679881095404</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.481370463694156</v>
+        <v>3.162085199616228</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01262679881095404</v>
+        <v>0.9576330443893663</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.162085199616228</v>
+        <v>1.731046827459883</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9576330443893663</v>
+        <v>70</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.731046827459883</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2509965075893248</v>
       </c>
     </row>
@@ -5018,72 +4916,66 @@
         <v>9.748403847801554e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.113677631059978</v>
+        <v>5.450982700685269e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>5.313755613724235</v>
+        <v>1.342840524703869e-05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.450982700685269e-06</v>
+        <v>-0.09322995321801536</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.342840524703869e-05</v>
+        <v>0.1820272141832372</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.09322995321801536</v>
+        <v>0.04179384546385908</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1820272141832372</v>
+        <v>1.781032348593109</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.04179384546385908</v>
+        <v>1.880430456171589</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.720021143696966</v>
+        <v>4.38646190971866</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.880430456171589</v>
+        <v>2.646971248456642e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.38646190971866</v>
+        <v>31015049.300842</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.646971248456642e-14</v>
+        <v>3.768801100208949e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>31015049.300842</v>
+        <v>25.46209743388301</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.768801100208949e-06</v>
+        <v>0.0001243538210932431</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>25.46209743388301</v>
+        <v>9.310819532996639</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001243538210932431</v>
+        <v>1.25986072204754</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.310819532996639</v>
+        <v>0.01078040191853092</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.25986072204754</v>
+        <v>3.124041596551395</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01078040191853092</v>
+        <v>0.958987030350825</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.124041596551395</v>
+        <v>1.699909181801914</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.958987030350825</v>
+        <v>67</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.699909181801914</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2483819632556659</v>
       </c>
     </row>
@@ -5460,7 +5352,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.685254507906372</v>
+        <v>1.666517872688177</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.922928362239232</v>
@@ -5549,7 +5441,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.69036649576012</v>
+        <v>1.655218273916545</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.84660917382695</v>
@@ -5638,7 +5530,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.655089350872865</v>
+        <v>1.609936498091524</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.61271708201079</v>
@@ -5727,7 +5619,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.607760818335744</v>
+        <v>1.535657547723176</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.558811571741447</v>
@@ -5816,7 +5708,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.569251433491143</v>
+        <v>1.492681507477889</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.72278374794922</v>
@@ -5905,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579777092304586</v>
+        <v>1.497778277974343</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.76427847161213</v>
@@ -5994,7 +5886,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.58205525928929</v>
+        <v>1.500173408754872</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.16502359794785</v>
@@ -6083,7 +5975,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.597216394402483</v>
+        <v>1.509042701681522</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.667912542569831</v>
@@ -6172,7 +6064,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.616170438137362</v>
+        <v>1.516798429177973</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.798217722969949</v>
@@ -6261,7 +6153,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.6334812765334</v>
+        <v>1.527935309650396</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.857104669668077</v>
@@ -6350,7 +6242,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636801495419138</v>
+        <v>1.535099790389324</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.739436420232099</v>
@@ -6439,7 +6331,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.644885873135844</v>
+        <v>1.536351556278556</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.316960430382032</v>
@@ -6528,7 +6420,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.653736672303455</v>
+        <v>1.540988387903791</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.086186069167363</v>
@@ -6617,7 +6509,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65564101555633</v>
+        <v>1.54452540478531</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.882903380224068</v>
@@ -6706,7 +6598,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.643284882576879</v>
+        <v>1.539662389922347</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.161852189020131</v>
@@ -6795,7 +6687,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.646928883581305</v>
+        <v>1.535942454784214</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.831124642180353</v>
@@ -6884,7 +6776,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.651730756276917</v>
+        <v>1.543389876808091</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.285338998623381</v>
@@ -6973,7 +6865,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666733994559182</v>
+        <v>1.557437713066639</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.36282563291554</v>
@@ -7062,7 +6954,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.675829093903346</v>
+        <v>1.563393154265525</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.692130613316205</v>
@@ -7151,7 +7043,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.676642236967225</v>
+        <v>1.553026749354899</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.170823106091754</v>
@@ -7240,7 +7132,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.669175169526374</v>
+        <v>1.547498390740351</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.239547595430587</v>
@@ -7329,7 +7221,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667088909916023</v>
+        <v>1.547745609236243</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.443964799921243</v>
@@ -7418,7 +7310,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.664614013089433</v>
+        <v>1.543696549146623</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.485777463421597</v>
@@ -7507,7 +7399,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658940808825309</v>
+        <v>1.538596249706286</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.263501677481413</v>
@@ -7596,7 +7488,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.660699049246341</v>
+        <v>1.542235839311203</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.107858886905779</v>
@@ -7685,7 +7577,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.670951003849042</v>
+        <v>1.536395103184088</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.252902063839203</v>
@@ -7774,7 +7666,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.658822653513372</v>
+        <v>1.525421146052007</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.113812058262674</v>
@@ -7863,7 +7755,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643669782581575</v>
+        <v>1.512367133096396</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.052087538739362</v>
@@ -7952,7 +7844,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.650170451162474</v>
+        <v>1.51908868926375</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.965544821278053</v>
@@ -8041,7 +7933,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.663639192399557</v>
+        <v>1.52700246718077</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.223727976503016</v>
@@ -8130,7 +8022,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.638321422716538</v>
+        <v>1.522151252264632</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.765048578372684</v>
@@ -8219,7 +8111,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.631608992220213</v>
+        <v>1.516104939835611</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.890795141190846</v>
@@ -8308,7 +8200,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615927239480264</v>
+        <v>1.505045922965502</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.718957561193136</v>
@@ -8397,7 +8289,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.624409089112352</v>
+        <v>1.511439785930591</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.725952433854545</v>
@@ -8486,7 +8378,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.607315483138065</v>
+        <v>1.500520540996911</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.564891350170467</v>
@@ -8575,7 +8467,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607009595815043</v>
+        <v>1.501161445118739</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.772837705803138</v>
@@ -8664,7 +8556,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592697532274643</v>
+        <v>1.493073534421717</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.820606141299145</v>
@@ -8753,7 +8645,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.593847192626513</v>
+        <v>1.493943371043779</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.775656671132958</v>
@@ -8842,7 +8734,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.595112746945986</v>
+        <v>1.499323774985056</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.618606597828186</v>
@@ -8931,7 +8823,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.592457602426677</v>
+        <v>1.501101902346474</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.692004907203753</v>
@@ -9020,7 +8912,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590938521559124</v>
+        <v>1.506833580007952</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.685968250669857</v>
@@ -9109,7 +9001,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.601696138924513</v>
+        <v>1.503551143325433</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.69053287708015</v>
@@ -9198,7 +9090,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.613531639244918</v>
+        <v>1.511156640748917</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.65125976137616</v>
@@ -9287,7 +9179,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.621171647324852</v>
+        <v>1.519448368838126</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.508774828133683</v>
@@ -9376,7 +9268,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.637405453996704</v>
+        <v>1.538066240650907</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.456672096184701</v>
@@ -9465,7 +9357,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.67040307245194</v>
+        <v>1.559312069615089</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.176495166793734</v>
@@ -9554,7 +9446,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.665258657641675</v>
+        <v>1.556759799433367</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.928914214145983</v>
@@ -9643,7 +9535,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.684386711366171</v>
+        <v>1.570879816149621</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.897860481236648</v>
@@ -9732,7 +9624,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.692391619637527</v>
+        <v>1.582696320434465</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.830094769901421</v>
@@ -9821,7 +9713,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.698529817813949</v>
+        <v>1.589028526607809</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.259317131802368</v>
@@ -9910,7 +9802,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.703420045571316</v>
+        <v>1.595625015383025</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.242521272347115</v>
@@ -9999,7 +9891,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.723008271761788</v>
+        <v>1.601971433842205</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.644474635906915</v>
@@ -10088,7 +9980,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.722958460803842</v>
+        <v>1.61317243858255</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.297659330329942</v>
@@ -10177,7 +10069,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.728343800646324</v>
+        <v>1.619116171460095</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.178240096631685</v>
@@ -10266,7 +10158,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.730413568008582</v>
+        <v>1.617928014443532</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.205115203938301</v>
@@ -10355,7 +10247,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.724625938452186</v>
+        <v>1.626620329281593</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.005037007783889</v>
@@ -10444,7 +10336,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.717972402683739</v>
+        <v>1.635804218877368</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.552691089627849</v>
@@ -10533,7 +10425,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.712787419258424</v>
+        <v>1.627220158723143</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.261013083148612</v>
@@ -10622,7 +10514,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.713575474224934</v>
+        <v>1.627290438517759</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.088233332999424</v>
@@ -10711,7 +10603,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.682238374735953</v>
+        <v>1.593409941262939</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.046233495953824</v>
@@ -10800,7 +10692,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.677244403197199</v>
+        <v>1.586584080401893</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.068278628508271</v>
@@ -11086,7 +10978,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.806709825189896</v>
+        <v>1.785284481129829</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.786331290627137</v>
@@ -11175,7 +11067,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.813935411206128</v>
+        <v>1.778985751966877</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.64759662537428</v>
@@ -11264,7 +11156,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.785458286137751</v>
+        <v>1.738155477496187</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.379902040103288</v>
@@ -11353,7 +11245,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.767194973306157</v>
+        <v>1.690320461004568</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.161531224893157</v>
@@ -11442,7 +11334,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.713761096813459</v>
+        <v>1.619634291070678</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.22440430547449</v>
@@ -11531,7 +11423,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.710586052937159</v>
+        <v>1.595134463152446</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.132438498206435</v>
@@ -11620,7 +11512,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.701449860393049</v>
+        <v>1.571608086544691</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.330465156293359</v>
@@ -11709,7 +11601,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.699015512175592</v>
+        <v>1.559159527095407</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.453817442546112</v>
@@ -11798,7 +11690,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.708716027695492</v>
+        <v>1.556171129900672</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.185582693095468</v>
@@ -11887,7 +11779,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.709628523080545</v>
+        <v>1.56553938872605</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.672255922637293</v>
@@ -11976,7 +11868,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.706370827409637</v>
+        <v>1.567796955814172</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.567707095120794</v>
@@ -12065,7 +11957,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.70115868599425</v>
+        <v>1.564540345844506</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.933378440186039</v>
@@ -12154,7 +12046,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.699361763081606</v>
+        <v>1.555700031258125</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.789069809311345</v>
@@ -12243,7 +12135,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.704959230955214</v>
+        <v>1.564130111394864</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.907627146965117</v>
@@ -12332,7 +12224,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.701948836304048</v>
+        <v>1.558596846340925</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.717478644329277</v>
@@ -12421,7 +12313,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.701374700951865</v>
+        <v>1.558936780121846</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.411193641767055</v>
@@ -12510,7 +12402,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.688476886708819</v>
+        <v>1.545705318011031</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.455485021382704</v>
@@ -12599,7 +12491,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69317750329667</v>
+        <v>1.547248201431225</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.604481542240277</v>
@@ -12688,7 +12580,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.693344292157443</v>
+        <v>1.540184655168729</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.364503886402788</v>
@@ -12777,7 +12669,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695776412157714</v>
+        <v>1.545810904014606</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.729191858683717</v>
@@ -12866,7 +12758,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.678732893866661</v>
+        <v>1.538107783377443</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.48033551925049</v>
@@ -12955,7 +12847,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.680465330235123</v>
+        <v>1.551166519940299</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.946828951454223</v>
@@ -13044,7 +12936,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.676050503249241</v>
+        <v>1.543323141809277</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.815334479865983</v>
@@ -13133,7 +13025,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.675419354423918</v>
+        <v>1.54530531613239</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.971424695781524</v>
@@ -13222,7 +13114,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.673415179468789</v>
+        <v>1.537896387554795</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.009944895973733</v>
@@ -13311,7 +13203,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.678396785288187</v>
+        <v>1.54205068605445</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.679404180805058</v>
@@ -13400,7 +13292,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.673603092616391</v>
+        <v>1.53584321095524</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.856920562592795</v>
@@ -13489,7 +13381,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667577522960687</v>
+        <v>1.530020223402302</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.645022519843593</v>
@@ -13578,7 +13470,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.663291029554613</v>
+        <v>1.522991986128735</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.060487627466218</v>
@@ -13667,7 +13559,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.672729244233621</v>
+        <v>1.528853062057757</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.323016242003037</v>
@@ -13756,7 +13648,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.650425152532843</v>
+        <v>1.514774186418887</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.255201526444078</v>
@@ -13845,7 +13737,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.662933432466856</v>
+        <v>1.53094029363568</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.420772464090496</v>
@@ -13934,7 +13826,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.661836609041301</v>
+        <v>1.534516009104689</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.342419358672041</v>
@@ -14023,7 +13915,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6637840513281</v>
+        <v>1.54480823204483</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.317390134593166</v>
@@ -14112,7 +14004,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.657278550868278</v>
+        <v>1.546892514598783</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.4382920983769</v>
@@ -14201,7 +14093,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666884012112548</v>
+        <v>1.553593565317056</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.371772305084906</v>
@@ -14290,7 +14182,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.659969351210333</v>
+        <v>1.547438705493511</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.012199819509324</v>
@@ -14379,7 +14271,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.657148070978099</v>
+        <v>1.551879494808186</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.41670504646112</v>
@@ -14468,7 +14360,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65939849759548</v>
+        <v>1.556951099424323</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.173784452095521</v>
@@ -14557,7 +14449,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.660932719968501</v>
+        <v>1.556595485528971</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.558827821431561</v>
@@ -14646,7 +14538,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.651774298434007</v>
+        <v>1.547148479796357</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.113956774855679</v>
@@ -14735,7 +14627,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.656969003681079</v>
+        <v>1.550204264859943</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.537626768849773</v>
@@ -14824,7 +14716,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.665953704800367</v>
+        <v>1.557905754474899</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.242443483720684</v>
@@ -14913,7 +14805,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.663727583966158</v>
+        <v>1.558515756343042</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.198419897768439</v>
@@ -15002,7 +14894,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.664815790840879</v>
+        <v>1.564354037289366</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.241756841454324</v>
@@ -15091,7 +14983,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.676871422437994</v>
+        <v>1.565549179359507</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.546303723767646</v>
@@ -15180,7 +15072,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.679424632769778</v>
+        <v>1.564692995028526</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.404478140485651</v>
@@ -15269,7 +15161,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.681277187102494</v>
+        <v>1.5671267111693</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.439286455523049</v>
@@ -15358,7 +15250,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.683435768196576</v>
+        <v>1.563722202121627</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.177397274760684</v>
@@ -15447,7 +15339,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.695286872788172</v>
+        <v>1.575156232898326</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.503878602737372</v>
@@ -15536,7 +15428,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.686883737833065</v>
+        <v>1.57375453118773</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.251319906186157</v>
@@ -15625,7 +15517,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.701496340422819</v>
+        <v>1.583568502503227</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.053953021949924</v>
@@ -15714,7 +15606,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.710403108755511</v>
+        <v>1.593912789363294</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.362998169127836</v>
@@ -15803,7 +15695,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.710895279080554</v>
+        <v>1.598744194836999</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.359844634388998</v>
@@ -15892,7 +15784,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.71179939935128</v>
+        <v>1.6026492712995</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.267035423883665</v>
@@ -15981,7 +15873,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.705824701902043</v>
+        <v>1.605512725511302</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.292820354595739</v>
@@ -16070,7 +15962,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.707509933864104</v>
+        <v>1.616506062783623</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.498987669978926</v>
@@ -16159,7 +16051,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.715539032507643</v>
+        <v>1.630764566724758</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.278598896669077</v>
@@ -16248,7 +16140,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.719908588373004</v>
+        <v>1.628133883781612</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.67568778768191</v>
@@ -16337,7 +16229,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.700565238791722</v>
+        <v>1.605108925952371</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.497916168332235</v>
@@ -16426,7 +16318,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.707567797808042</v>
+        <v>1.620911321740989</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.61766353715454</v>
@@ -16712,7 +16604,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.890952220273596</v>
+        <v>1.862804422139347</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.976620144107606</v>
@@ -16801,7 +16693,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.876855315229694</v>
+        <v>1.836603376016889</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.780140592271568</v>
@@ -16890,7 +16782,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.851613377002308</v>
+        <v>1.797087467275348</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.535973057386628</v>
@@ -16979,7 +16871,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.801511899413759</v>
+        <v>1.719231602359423</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.279137106906225</v>
@@ -17068,7 +16960,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.744781591712699</v>
+        <v>1.643860851743339</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.633317131567966</v>
@@ -17157,7 +17049,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.717099367360398</v>
+        <v>1.595701396793611</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.043603498363831</v>
@@ -17246,7 +17138,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.694482207112799</v>
+        <v>1.552729437343927</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.443126364011787</v>
@@ -17335,7 +17227,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.688546491873516</v>
+        <v>1.540153369297548</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.499167426436041</v>
@@ -17424,7 +17316,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.686789498941452</v>
+        <v>1.533369666008162</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.05797817926022</v>
@@ -17513,7 +17405,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.697880473673688</v>
+        <v>1.547586066947348</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.803115584185243</v>
@@ -17602,7 +17494,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.691759913199106</v>
+        <v>1.552012542417485</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.617197938321386</v>
@@ -17691,7 +17583,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.696666441480917</v>
+        <v>1.55962539106263</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.110553674424736</v>
@@ -17780,7 +17672,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.695091722131545</v>
+        <v>1.550044659514362</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.088007740575329</v>
@@ -17869,7 +17761,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.699114812880446</v>
+        <v>1.557224705722187</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.569961501868583</v>
@@ -17958,7 +17850,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.692981913320602</v>
+        <v>1.556004005177491</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.664472887275905</v>
@@ -18047,7 +17939,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.69539083572961</v>
+        <v>1.555062184592874</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.837865258936224</v>
@@ -18136,7 +18028,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.697018196058987</v>
+        <v>1.560785309269155</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.763926408049949</v>
@@ -18225,7 +18117,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.695596404170842</v>
+        <v>1.561063360968706</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.378159531051485</v>
@@ -18314,7 +18206,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.697568883486375</v>
+        <v>1.557394932053504</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.215986043734746</v>
@@ -18403,7 +18295,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.690775754718697</v>
+        <v>1.549463511189878</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.672856110300982</v>
@@ -18492,7 +18384,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.687690519868714</v>
+        <v>1.556205008468132</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.281681748951884</v>
@@ -18581,7 +18473,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.691349665166135</v>
+        <v>1.573014219014075</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.875472237324168</v>
@@ -18670,7 +18562,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690879596513219</v>
+        <v>1.563326016457749</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.83157701850392</v>
@@ -18759,7 +18651,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.692128591556598</v>
+        <v>1.568523428193949</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.821772124504328</v>
@@ -18848,7 +18740,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.69175458864466</v>
+        <v>1.561654700545973</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.212082510913438</v>
@@ -18937,7 +18829,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.699889504454726</v>
+        <v>1.555419260574806</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.562205395507827</v>
@@ -19026,7 +18918,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.691121720738689</v>
+        <v>1.549701049480388</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.567992292606441</v>
@@ -19115,7 +19007,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.689099035312682</v>
+        <v>1.552763885049862</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.485439831795611</v>
@@ -19204,7 +19096,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.691471556176742</v>
+        <v>1.555575501854076</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.846423628073063</v>
@@ -19293,7 +19185,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.699529161443995</v>
+        <v>1.559755678270337</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.373297168531975</v>
@@ -19382,7 +19274,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.695567227659741</v>
+        <v>1.556988527531019</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.543721923030675</v>
@@ -19471,7 +19363,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694233359330231</v>
+        <v>1.548852418718695</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.271313957536236</v>
@@ -19560,7 +19452,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.698961980509822</v>
+        <v>1.555596580479746</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.944665376714678</v>
@@ -19649,7 +19541,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706817585706631</v>
+        <v>1.556668408194991</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.574474429515002</v>
@@ -19738,7 +19630,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.708197457148193</v>
+        <v>1.560901052262192</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.252139510256842</v>
@@ -19827,7 +19719,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.71221235521584</v>
+        <v>1.556601722415527</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.393262380226505</v>
@@ -19916,7 +19808,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696077098426937</v>
+        <v>1.540092972049301</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.601091979938277</v>
@@ -20005,7 +19897,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.699918383427183</v>
+        <v>1.548539585512948</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.276764722148623</v>
@@ -20094,7 +19986,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706193084189211</v>
+        <v>1.556650026202729</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.542639589534779</v>
@@ -20183,7 +20075,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.704959637179468</v>
+        <v>1.567336996446323</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.600026696082736</v>
@@ -20272,7 +20164,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.705790683329269</v>
+        <v>1.573592452392256</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.487786528438906</v>
@@ -20361,7 +20253,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.713469449485409</v>
+        <v>1.566503094091537</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.438412649993358</v>
@@ -20450,7 +20342,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.709118242262971</v>
+        <v>1.55863745770608</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.9300985289265</v>
@@ -20539,7 +20431,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.702876831743524</v>
+        <v>1.555195335780835</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.371073266738185</v>
@@ -20628,7 +20520,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.708322585724004</v>
+        <v>1.56911035257985</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.046817638693428</v>
@@ -20717,7 +20609,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.714975685697748</v>
+        <v>1.578432220014192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.666271442423928</v>
@@ -20806,7 +20698,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712409065952571</v>
+        <v>1.579791615557779</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.09149703621204</v>
@@ -20895,7 +20787,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.715105366524003</v>
+        <v>1.586109558706203</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.703597248484957</v>
@@ -20984,7 +20876,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.712427917703231</v>
+        <v>1.591081429549185</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.260673888915682</v>
@@ -21073,7 +20965,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.711517121803362</v>
+        <v>1.5887810811318</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.203879662805054</v>
@@ -21162,7 +21054,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.713126258489107</v>
+        <v>1.595348702262364</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.468774263761107</v>
@@ -21251,7 +21143,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.719535028610767</v>
+        <v>1.602966585981333</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.405358453675638</v>
@@ -21340,7 +21232,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.716801295871724</v>
+        <v>1.611562060478958</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.934915523068986</v>
@@ -21429,7 +21321,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.719802227381219</v>
+        <v>1.614336718440663</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.977102699031392</v>
@@ -21518,7 +21410,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.714397427061909</v>
+        <v>1.600756913725222</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.598777061390909</v>
@@ -21607,7 +21499,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.713289037881563</v>
+        <v>1.598092275104278</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.518066487151239</v>
@@ -21696,7 +21588,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.706729947035202</v>
+        <v>1.601732667352037</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.202996289315373</v>
@@ -21785,7 +21677,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.703269904899871</v>
+        <v>1.599290899596608</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.261471571147099</v>
@@ -21874,7 +21766,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.708876974847442</v>
+        <v>1.606837207258483</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.655136676501233</v>
@@ -21963,7 +21855,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.693140028541645</v>
+        <v>1.581934060841411</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.608489872857207</v>
@@ -22052,7 +21944,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.693952800762299</v>
+        <v>1.58537123706137</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.501819807995161</v>
@@ -22338,7 +22230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.928279895844241</v>
+        <v>1.901543227634971</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.848582038154113</v>
@@ -22427,7 +22319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.911839835774168</v>
+        <v>1.87521148963251</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.724580574619289</v>
@@ -22516,7 +22408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.89414910254791</v>
+        <v>1.84000735718463</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.559166618808884</v>
@@ -22605,7 +22497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.861065677041247</v>
+        <v>1.772452704934314</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.443027186511829</v>
@@ -22694,7 +22586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.812625475123885</v>
+        <v>1.689450391029519</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.751802921669475</v>
@@ -22783,7 +22675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.785923269911478</v>
+        <v>1.649047818134874</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.552010238112445</v>
@@ -22872,7 +22764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.767901667830336</v>
+        <v>1.615143023763969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.132679316879095</v>
@@ -22961,7 +22853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.754486439170783</v>
+        <v>1.581659170462505</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.591107486232791</v>
@@ -23050,7 +22942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.75594197642291</v>
+        <v>1.585753596504633</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.427696935338937</v>
@@ -23139,7 +23031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.747156701908843</v>
+        <v>1.576449775212722</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.674172793527331</v>
@@ -23228,7 +23120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.742032233322936</v>
+        <v>1.572596296173489</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.51813177109637</v>
@@ -23317,7 +23209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736904510828154</v>
+        <v>1.560076638775129</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.618053530452497</v>
@@ -23406,7 +23298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.721418116547602</v>
+        <v>1.539239196379494</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.252491169399324</v>
@@ -23495,7 +23387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.726958127865063</v>
+        <v>1.540511899442646</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.668382879544276</v>
@@ -23584,7 +23476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.719379798637591</v>
+        <v>1.52665069737435</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.337190586464679</v>
@@ -23673,7 +23565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.718008543182195</v>
+        <v>1.52488703797428</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.983793022363223</v>
@@ -23762,7 +23654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.712927679284624</v>
+        <v>1.517765044822138</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.916818485968804</v>
@@ -23851,7 +23743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.716064544386662</v>
+        <v>1.524848230322666</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.377992541327755</v>
@@ -23940,7 +23832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.712628102232097</v>
+        <v>1.523392689371232</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.353235532839556</v>
@@ -24029,7 +23921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.708387744330099</v>
+        <v>1.514992388761063</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.80764269329631</v>
@@ -24118,7 +24010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.704775576448272</v>
+        <v>1.514806619963942</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.17534699679157</v>
@@ -24207,7 +24099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.707639702216952</v>
+        <v>1.51507369473287</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.875461961610073</v>
@@ -24296,7 +24188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.705374117200007</v>
+        <v>1.511897652440817</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.123914924349501</v>
@@ -24385,7 +24277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.703435458996777</v>
+        <v>1.494607957587184</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.649184264486012</v>
@@ -24474,7 +24366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.708978522100732</v>
+        <v>1.498169463433877</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.531868719960962</v>
@@ -24563,7 +24455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.715017211253683</v>
+        <v>1.499958624575357</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.255033413641874</v>
@@ -24652,7 +24544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.715942487847784</v>
+        <v>1.50621372772475</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.696869011842995</v>
@@ -24741,7 +24633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.719824816182214</v>
+        <v>1.501666486896065</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.9587780119261</v>
@@ -24830,7 +24722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.718749243525342</v>
+        <v>1.501815373393443</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.402839551418229</v>
@@ -24919,7 +24811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.723249721028125</v>
+        <v>1.51196955107075</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.788380650025954</v>
@@ -25008,7 +24900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.724721882129804</v>
+        <v>1.524355274234569</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.95412596025346</v>
@@ -25097,7 +24989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.730403449172948</v>
+        <v>1.531510038193005</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.741126859034268</v>
@@ -25186,7 +25078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.720768449296575</v>
+        <v>1.52560096067307</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.703555292746259</v>
@@ -25275,7 +25167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.726644046762218</v>
+        <v>1.542240487361663</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.328550869545388</v>
@@ -25364,7 +25256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.724265325259123</v>
+        <v>1.55065409434735</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.583937768331117</v>
@@ -25453,7 +25345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.726613107301033</v>
+        <v>1.552495750882904</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.989737588733197</v>
@@ -25542,7 +25434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.722546674303971</v>
+        <v>1.556253140516127</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.14994524227142</v>
@@ -25631,7 +25523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.729709889592528</v>
+        <v>1.57159745112055</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.980939254904087</v>
@@ -25720,7 +25612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.733110480910593</v>
+        <v>1.589694052852518</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.6364659779447</v>
@@ -25809,7 +25701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.719188611000375</v>
+        <v>1.581812494504967</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.502616324568351</v>
@@ -25898,7 +25790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.722268211736395</v>
+        <v>1.58832296184941</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.017091005341807</v>
@@ -25987,7 +25879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.730699274075439</v>
+        <v>1.599590990367608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.104168178612328</v>
@@ -26076,7 +25968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.731343843130017</v>
+        <v>1.607230798618843</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.529225679928402</v>
@@ -26165,7 +26057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.71675858254995</v>
+        <v>1.600393794688719</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.888028296450743</v>
@@ -26254,7 +26146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.713296319704821</v>
+        <v>1.596392649608052</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.310184912435143</v>
@@ -26343,7 +26235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.712870427808085</v>
+        <v>1.586719874897278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.893558077355652</v>
@@ -26432,7 +26324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.713808119685493</v>
+        <v>1.594414143511951</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.512006296488625</v>
@@ -26521,7 +26413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.720004167164638</v>
+        <v>1.595698374588184</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.899391124481265</v>
@@ -26610,7 +26502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.719888725152636</v>
+        <v>1.59291284528006</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.784334338000799</v>
@@ -26699,7 +26591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.709306793967234</v>
+        <v>1.58473280207694</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.04090896147583</v>
@@ -26788,7 +26680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.706964635029041</v>
+        <v>1.585656626984151</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.706261578819969</v>
@@ -26877,7 +26769,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.718188866096926</v>
+        <v>1.599068285089272</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.989292618508799</v>
@@ -26966,7 +26858,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.707090838774375</v>
+        <v>1.588162585473661</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.009528769798741</v>
@@ -27055,7 +26947,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.713437031129624</v>
+        <v>1.594927268242975</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.984014864925868</v>
@@ -27144,7 +27036,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710155111824663</v>
+        <v>1.592588196076151</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.489945656275812</v>
@@ -27233,7 +27125,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.702738738917144</v>
+        <v>1.585789951613496</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.504769227656538</v>
@@ -27322,7 +27214,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.699177282800131</v>
+        <v>1.5829069192391</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.441653000767537</v>
@@ -27411,7 +27303,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.706570558102972</v>
+        <v>1.593911968249414</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.260232702810703</v>
@@ -27500,7 +27392,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.713080286131268</v>
+        <v>1.586165579343072</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.737794229490344</v>
@@ -27589,7 +27481,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.71342833348945</v>
+        <v>1.577104517485271</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.240009447819241</v>
@@ -27678,7 +27570,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.716580447470003</v>
+        <v>1.588428238565069</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.370728702210897</v>
@@ -27964,7 +27856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.855162968365724</v>
+        <v>1.851156525200633</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.659795384726585</v>
@@ -28053,7 +27945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.835506475585742</v>
+        <v>1.825221916393374</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.514153221310475</v>
@@ -28142,7 +28034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.8120925663858</v>
+        <v>1.796050715709882</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.244514720708806</v>
@@ -28231,7 +28123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.750120402421518</v>
+        <v>1.708124635617089</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.284448688672116</v>
@@ -28320,7 +28212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.681001040918112</v>
+        <v>1.606934198383891</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.039145087023627</v>
@@ -28409,7 +28301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.657058778269662</v>
+        <v>1.559914776593222</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.968335941163249</v>
@@ -28498,7 +28390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.659015341812465</v>
+        <v>1.560913255466741</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.440734641426296</v>
@@ -28587,7 +28479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.668315868746727</v>
+        <v>1.561949818741178</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.313171403261056</v>
@@ -28676,7 +28568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.678021124467127</v>
+        <v>1.558793415693808</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.205849980366507</v>
@@ -28765,7 +28657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.692276731229552</v>
+        <v>1.562257321276391</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.097372726540947</v>
@@ -28854,7 +28746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.701040523696058</v>
+        <v>1.565902251630666</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.496645844530573</v>
@@ -28943,7 +28835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.704076715319409</v>
+        <v>1.570019424190509</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.427983238411461</v>
@@ -29032,7 +28924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.68959747229084</v>
+        <v>1.551355649590428</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.700622233800235</v>
@@ -29121,7 +29013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.691711811020929</v>
+        <v>1.553548550397448</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.655957976406447</v>
@@ -29210,7 +29102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681181384748313</v>
+        <v>1.540493280864964</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.495544662089805</v>
@@ -29299,7 +29191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.685892063959914</v>
+        <v>1.535765490815396</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.697093475654232</v>
@@ -29388,7 +29280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676831779567569</v>
+        <v>1.524599845537621</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.436099971355495</v>
@@ -29477,7 +29369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.678749829390453</v>
+        <v>1.526095867414201</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.949905171980867</v>
@@ -29566,7 +29458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.673831311308064</v>
+        <v>1.52391641190317</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.888225802622167</v>
@@ -29655,7 +29547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.66516071479007</v>
+        <v>1.521518237132246</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.156798718811467</v>
@@ -29744,7 +29636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.667254204690798</v>
+        <v>1.52662344456481</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.219757495445457</v>
@@ -29833,7 +29725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.66335413597435</v>
+        <v>1.522449784673483</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.341487460248161</v>
@@ -29922,7 +29814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.65608139441308</v>
+        <v>1.513734168429776</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.185594836890683</v>
@@ -30011,7 +29903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.659338029084022</v>
+        <v>1.518464549901033</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.382253150622351</v>
@@ -30100,7 +29992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.659794230359389</v>
+        <v>1.525277682249936</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.141960229738551</v>
@@ -30189,7 +30081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.658857031407432</v>
+        <v>1.52658689659073</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.360348087159743</v>
@@ -30278,7 +30170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.654701155996903</v>
+        <v>1.527948082849869</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.233076090009532</v>
@@ -30367,7 +30259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.655694672452091</v>
+        <v>1.529002228216005</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.316872184552655</v>
@@ -30456,7 +30348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.651882176135031</v>
+        <v>1.530319994262867</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.82177813936452</v>
@@ -30545,7 +30437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.635698056216918</v>
+        <v>1.517860783328868</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.208856254892477</v>
@@ -30634,7 +30526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626968793410695</v>
+        <v>1.519663338399419</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.840160847352785</v>
@@ -30723,7 +30615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.632837264897619</v>
+        <v>1.529165546250173</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.87153315814649</v>
@@ -30812,7 +30704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.624948420730677</v>
+        <v>1.526623271808522</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.028931896599688</v>
@@ -30901,7 +30793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.632168230677289</v>
+        <v>1.530188134850338</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.168127627302785</v>
@@ -30990,7 +30882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616044318199279</v>
+        <v>1.518589299209008</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.163174765194723</v>
@@ -31079,7 +30971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.62243347412725</v>
+        <v>1.524862189115495</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.072024404975278</v>
@@ -31168,7 +31060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.620851803508211</v>
+        <v>1.535919396547476</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.090098106046575</v>
@@ -31257,7 +31149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617501177778706</v>
+        <v>1.538344773067656</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.044470794682272</v>
@@ -31346,7 +31238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619593071283979</v>
+        <v>1.543308033809367</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.061212423863489</v>
@@ -31435,7 +31327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.615657808328542</v>
+        <v>1.541349364674609</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.025465884967254</v>
@@ -31524,7 +31416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.618496402603817</v>
+        <v>1.54540892651569</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.855597881313012</v>
@@ -31613,7 +31505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624491989746502</v>
+        <v>1.545182200660721</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.008623894236836</v>
@@ -31702,7 +31594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.633513246299458</v>
+        <v>1.55561811142196</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.804868554962828</v>
@@ -31791,7 +31683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.645720611525278</v>
+        <v>1.563949298004738</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.894754996705099</v>
@@ -31880,7 +31772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.668179172712708</v>
+        <v>1.58951793501907</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.752999762686162</v>
@@ -31969,7 +31861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.682213311566793</v>
+        <v>1.608516379309441</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.221056886080119</v>
@@ -32058,7 +31950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681315939399551</v>
+        <v>1.610272929401421</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.827593744350352</v>
@@ -32147,7 +32039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.696494891215251</v>
+        <v>1.620176086676244</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.424270663330582</v>
@@ -32236,7 +32128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.699400341202474</v>
+        <v>1.623622649576067</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.068244877971816</v>
@@ -32325,7 +32217,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.717141144667063</v>
+        <v>1.637964385593765</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.184254805372527</v>
@@ -32414,7 +32306,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.701089604956153</v>
+        <v>1.624300639305789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.202308972098451</v>
@@ -32503,7 +32395,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.71074258279039</v>
+        <v>1.624840288679919</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.072017241994027</v>
@@ -32592,7 +32484,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.718313987341989</v>
+        <v>1.638666997529997</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.449868312747227</v>
@@ -32681,7 +32573,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.71880163497992</v>
+        <v>1.638636300644888</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.042447982764289</v>
@@ -32770,7 +32662,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.716677709801359</v>
+        <v>1.632330348721927</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.135437751462816</v>
@@ -32859,7 +32751,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.704791972921845</v>
+        <v>1.625205757189733</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.889478539155156</v>
@@ -32948,7 +32840,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.697216209182309</v>
+        <v>1.628320331934847</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.062757307808692</v>
@@ -33037,7 +32929,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.702797773709485</v>
+        <v>1.625932510129989</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.180592884471087</v>
@@ -33126,7 +33018,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.704825307613483</v>
+        <v>1.628713611277015</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.369365367659244</v>
@@ -33215,7 +33107,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.714064040473296</v>
+        <v>1.630500016140884</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.298936396808421</v>
@@ -33304,7 +33196,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.710024080962528</v>
+        <v>1.623169556668544</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.37517867899111</v>
@@ -33590,7 +33482,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.76930990350807</v>
+        <v>1.757363619770382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.763628964714777</v>
@@ -33679,7 +33571,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.765637901104785</v>
+        <v>1.735520543618267</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.63853622038224</v>
@@ -33768,7 +33660,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.728516907569222</v>
+        <v>1.686900814016185</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.577763187768779</v>
@@ -33857,7 +33749,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.663911224845138</v>
+        <v>1.606667040715243</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.593803846656938</v>
@@ -33946,7 +33838,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.612631382630271</v>
+        <v>1.528714291917183</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.241440222024657</v>
@@ -34035,7 +33927,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.603531960159736</v>
+        <v>1.511260655908431</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.019071314657186</v>
@@ -34124,7 +34016,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.592636237135539</v>
+        <v>1.495478954736541</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.948602109099426</v>
@@ -34213,7 +34105,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595539505054246</v>
+        <v>1.485837227798838</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.737334746345618</v>
@@ -34302,7 +34194,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610998233598865</v>
+        <v>1.503492949062654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.742081492613926</v>
@@ -34391,7 +34283,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630568351334269</v>
+        <v>1.515570487407508</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.763242411106332</v>
@@ -34480,7 +34372,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.623613781814528</v>
+        <v>1.508281026604125</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.970195083218871</v>
@@ -34569,7 +34461,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.625273727832649</v>
+        <v>1.507523998704891</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.259570645214402</v>
@@ -34658,7 +34550,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.602402146810029</v>
+        <v>1.482093571326464</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.95716354283286</v>
@@ -34747,7 +34639,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.609231175885097</v>
+        <v>1.481373532394868</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.852690007731169</v>
@@ -34836,7 +34728,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.596700591258452</v>
+        <v>1.469161532330195</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.070503889357551</v>
@@ -34925,7 +34817,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.592977624392293</v>
+        <v>1.455403051843074</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.07039047549827</v>
@@ -35014,7 +34906,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.586686898657775</v>
+        <v>1.445895555205176</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.003588981870795</v>
@@ -35103,7 +34995,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.594255658330639</v>
+        <v>1.449566379549029</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.792614723534586</v>
@@ -35192,7 +35084,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.595926221759904</v>
+        <v>1.453298692907503</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.561680668215636</v>
@@ -35281,7 +35173,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59677944962896</v>
+        <v>1.456016891645218</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.96971514845517</v>
@@ -35370,7 +35262,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.59771086333402</v>
+        <v>1.460225992517018</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.032446937687397</v>
@@ -35459,7 +35351,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604290552106432</v>
+        <v>1.465602038382803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.104977096222381</v>
@@ -35548,7 +35440,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603800077665515</v>
+        <v>1.460027317768525</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.188950591593035</v>
@@ -35637,7 +35529,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.602388046325924</v>
+        <v>1.449023008076376</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.263014780356498</v>
@@ -35726,7 +35618,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.600918289010705</v>
+        <v>1.453302345862141</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.869616627004727</v>
@@ -35815,7 +35707,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.617488562620332</v>
+        <v>1.465241666564406</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.088082671484341</v>
@@ -35904,7 +35796,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.617422979910962</v>
+        <v>1.464319423005243</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.795024418185885</v>
@@ -35993,7 +35885,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630613774771083</v>
+        <v>1.469154200707911</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.038735341199468</v>
@@ -36082,7 +35974,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.632499580659096</v>
+        <v>1.474131502560349</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.058158317394863</v>
@@ -36171,7 +36063,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.630582695701314</v>
+        <v>1.468119206954331</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.404323576630969</v>
@@ -36260,7 +36152,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.628778767101525</v>
+        <v>1.475340628445954</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.982151883679439</v>
@@ -36349,7 +36241,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625531770950066</v>
+        <v>1.472291835936816</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.997639348092642</v>
@@ -36438,7 +36330,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609081744354093</v>
+        <v>1.464952627193633</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.103706570621854</v>
@@ -36527,7 +36419,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.613057360791142</v>
+        <v>1.457579203342603</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.27434651775195</v>
@@ -36616,7 +36508,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603111360349197</v>
+        <v>1.447349043101526</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.953053966821141</v>
@@ -36705,7 +36597,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610335880317308</v>
+        <v>1.455884875393551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.12206172050758</v>
@@ -36794,7 +36686,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.597640002389223</v>
+        <v>1.448020989657782</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.249151284981543</v>
@@ -36883,7 +36775,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.595854924313352</v>
+        <v>1.442964677441537</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.153567081422471</v>
@@ -36972,7 +36864,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.600152493534498</v>
+        <v>1.453441582850993</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.927634470001828</v>
@@ -37061,7 +36953,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597373891557502</v>
+        <v>1.446725459436731</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.209244293803401</v>
@@ -37150,7 +37042,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.602605831839371</v>
+        <v>1.448530447805236</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.072797620222596</v>
@@ -37239,7 +37131,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609180644955446</v>
+        <v>1.454948533965558</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.154427803109532</v>
@@ -37328,7 +37220,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.622138247464266</v>
+        <v>1.467492179359268</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.003471127795913</v>
@@ -37417,7 +37309,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.613382207263332</v>
+        <v>1.460457826083647</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.085461750446308</v>
@@ -37506,7 +37398,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.636031884551375</v>
+        <v>1.487426417421292</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.647463657985111</v>
@@ -37595,7 +37487,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.648994924311631</v>
+        <v>1.505611019257358</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.09148724940207</v>
@@ -37684,7 +37576,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647323188932944</v>
+        <v>1.510894023833833</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.965322142954754</v>
@@ -37773,7 +37665,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.663885214294138</v>
+        <v>1.520751556650603</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.130332617723643</v>
@@ -37862,7 +37754,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.670307703925278</v>
+        <v>1.534278690691485</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.914104325556441</v>
@@ -37951,7 +37843,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.669400057100467</v>
+        <v>1.540491483523759</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.187805030842926</v>
@@ -38040,7 +37932,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.662267220723248</v>
+        <v>1.534122212846718</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.186272440527162</v>
@@ -38129,7 +38021,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.676551094582734</v>
+        <v>1.550444455948365</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.544960385303558</v>
@@ -38218,7 +38110,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.675477535368429</v>
+        <v>1.560244131847137</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.314734477437023</v>
@@ -38307,7 +38199,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.674195989241321</v>
+        <v>1.562078640617451</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.809569673332738</v>
@@ -38396,7 +38288,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.674923386694935</v>
+        <v>1.561803063518568</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.48877073297483</v>
@@ -38485,7 +38377,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.665276738140118</v>
+        <v>1.560222418982074</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.985417870150492</v>
@@ -38574,7 +38466,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.660915949436119</v>
+        <v>1.560744463119662</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.072022409618902</v>
@@ -38663,7 +38555,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.658950430335605</v>
+        <v>1.553238629264043</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.056425782941455</v>
@@ -38752,7 +38644,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.66718419006352</v>
+        <v>1.551571877483317</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.136247473613463</v>
@@ -38841,7 +38733,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.657597917957126</v>
+        <v>1.539384034994057</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.149140703700145</v>
@@ -38930,7 +38822,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.65880123483147</v>
+        <v>1.538015283167051</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.866971443912066</v>
